--- a/autoflpy/user_files/checklists/Checklists emergency.xlsx
+++ b/autoflpy/user_files/checklists/Checklists emergency.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aw6g15\University of Southampton\Adrian Weishaeupl - Documents\PhD\2019\AutoFLpy\AutoFLpy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aw6g15\University of Southampton\Adrian Weishaeupl - Documents\PhD\2019\AutoFLpy\AutoFLpy\autoflpy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:20001_{7F5B8737-181D-49EA-95FB-407F0FCD510D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{9D4611E7-834D-4097-89C1-446AB3561A94}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="6_{FD448723-9E88-4AEF-9B19-2759A1E39832}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{473185F7-2442-4E2C-AAB5-F16B618F7037}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Approach with powder fire extingusher;</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>5.00</t>
@@ -113,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -146,9 +143,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,10 +179,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -524,7 +521,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,117 +530,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>23</v>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>43772.65121527778</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43802.651828703703</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="3">
+        <v>43466.65121527778</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43466.651828703703</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>43759.654398148101</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>43759.654803240701</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>24</v>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -667,17 +664,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -687,6 +684,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4de5569b-e040-4e3a-896c-3d10ceee17bb">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045D28EA33B1D374F90B741F2AF73533E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70f0338854bc56f50ac4daf9a6be0e17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d6e80eea-1699-4de5-969f-0d9eb2724e77" xmlns:ns3="4de5569b-e040-4e3a-896c-3d10ceee17bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88fb165263e20f462f96975fe477339d" ns2:_="" ns3:_="">
     <xsd:import namespace="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
@@ -889,20 +900,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4de5569b-e040-4e3a-896c-3d10ceee17bb">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -913,22 +910,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD52C885-CCBC-4993-BEC0-35EBEB3D3CAD}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC263F84-3C12-4CB9-B561-E45814456A2D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="4de5569b-e040-4e3a-896c-3d10ceee17bb"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD52C885-CCBC-4993-BEC0-35EBEB3D3CAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
+    <ds:schemaRef ds:uri="4de5569b-e040-4e3a-896c-3d10ceee17bb"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4de5569b-e040-4e3a-896c-3d10ceee17bb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
